--- a/doc/SRS-GROUP-1.xlsx
+++ b/doc/SRS-GROUP-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5358ebbbdc3bdf1a/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\priyanka\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C205B5CF-FA4D-4F6E-8BB4-F7715B8555EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3601EC0C-C70C-4A23-8A55-7AB2F66E28AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{FD381E3E-DC9E-4042-A7A3-59089D4522E0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD381E3E-DC9E-4042-A7A3-59089D4522E0}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="2" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -95,25 +93,13 @@
     <t>Siva Priya Reddy Guduru</t>
   </si>
   <si>
-    <t xml:space="preserve">Implimentation of Sockets for Server and Client </t>
-  </si>
-  <si>
     <t>Dugunepalli Sunil Kumar</t>
   </si>
   <si>
-    <t>Seperating file directories , logger, gcov, Valgrind</t>
-  </si>
-  <si>
     <t>Varaha Vinaya Priyanka Geddam</t>
   </si>
   <si>
-    <t>Execv Function, Make file</t>
-  </si>
-  <si>
     <t>P Vigneshwar</t>
-  </si>
-  <si>
-    <t>Signals</t>
   </si>
   <si>
     <t>Altran Confidential</t>
@@ -305,6 +291,18 @@
   </si>
   <si>
     <t>Signals are used to terminate the process (ctrl + z )</t>
+  </si>
+  <si>
+    <t>Signals,Makefile</t>
+  </si>
+  <si>
+    <t>Sockects(server),Login credentials</t>
+  </si>
+  <si>
+    <t>Sockects(client),Login credentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Logger,Execvp Function</t>
   </si>
 </sst>
 </file>
@@ -727,118 +725,118 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1156,8 +1154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{658680C3-5AF7-44FA-8ED7-6BF8BD7EA6D6}">
   <dimension ref="C2:O31"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="95" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:L20"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="95" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1176,92 +1174,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D2" s="69" t="s">
+      <c r="D2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D6" s="71" t="s">
+      <c r="D6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72" t="s">
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="68" t="s">
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="68"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="67">
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="44">
         <v>0.1</v>
       </c>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
     </row>
     <row r="9" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
       <c r="H9" s="55" t="s">
         <v>7</v>
       </c>
@@ -1271,131 +1269,131 @@
       <c r="L9" s="55"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="66" t="s">
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C15" s="12"/>
-      <c r="D15" s="61" t="s">
+      <c r="D15" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="52"/>
       <c r="F15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G15" s="61" t="s">
+      <c r="G15" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
       <c r="J15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K15" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="L15" s="61"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="D16" s="63">
+      <c r="D16" s="53">
         <v>0.1</v>
       </c>
-      <c r="E16" s="63"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="9"/>
-      <c r="G16" s="63" t="s">
+      <c r="G16" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="53"/>
       <c r="J16" s="9"/>
-      <c r="K16" s="56" t="s">
+      <c r="K16" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="56"/>
+      <c r="L16" s="63"/>
     </row>
     <row r="17" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D17" s="58">
+      <c r="D17" s="57">
         <v>0.2</v>
       </c>
-      <c r="E17" s="58"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="58" t="s">
+      <c r="G17" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="53" t="s">
+      <c r="K17" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="L17" s="61"/>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="60">
+        <v>0.3</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="L17" s="53"/>
-    </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D18" s="62">
-        <v>0.3</v>
-      </c>
-      <c r="E18" s="62"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="62" t="s">
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="62" t="s">
+        <v>83</v>
+      </c>
+      <c r="L18" s="62"/>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D19" s="57">
+        <v>0.4</v>
+      </c>
+      <c r="E19" s="57"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="54" t="s">
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="61"/>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D20" s="56">
+        <v>0.5</v>
+      </c>
+      <c r="E20" s="56"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="L18" s="54"/>
-    </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D19" s="58">
-        <v>0.4</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="58" t="s">
-        <v>22</v>
-      </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="53"/>
-    </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D20" s="57">
-        <v>0.5</v>
-      </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="57" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
       <c r="J20" s="6"/>
       <c r="K20" s="55" t="s">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="L20" s="55"/>
     </row>
@@ -1415,147 +1413,145 @@
       <c r="O23" s="11"/>
     </row>
     <row r="24" spans="4:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D24" s="41" t="s">
+      <c r="D24" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="66"/>
+    </row>
+    <row r="25" spans="4:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D25" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="66"/>
+    </row>
+    <row r="26" spans="4:15" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D26" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="74"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="75"/>
+    </row>
+    <row r="27" spans="4:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="66"/>
+    </row>
+    <row r="28" spans="4:15" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D28" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="43"/>
-    </row>
-    <row r="25" spans="4:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D25" s="41" t="s">
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="66"/>
+    </row>
+    <row r="29" spans="4:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D29" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="42"/>
-      <c r="N25" s="42"/>
-      <c r="O25" s="43"/>
-    </row>
-    <row r="26" spans="4:15" ht="35.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D26" s="50" t="s">
+      <c r="E29" s="65"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="65"/>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="66"/>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D30" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="51"/>
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="51"/>
-      <c r="M26" s="51"/>
-      <c r="N26" s="51"/>
-      <c r="O26" s="52"/>
-    </row>
-    <row r="27" spans="4:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D27" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="43"/>
-    </row>
-    <row r="28" spans="4:15" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="43"/>
-    </row>
-    <row r="29" spans="4:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D29" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
-      <c r="M29" s="42"/>
-      <c r="N29" s="42"/>
-      <c r="O29" s="43"/>
-    </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
-      <c r="D30" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="E30" s="45"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="45"/>
-      <c r="J30" s="45"/>
-      <c r="K30" s="45"/>
-      <c r="L30" s="45"/>
-      <c r="M30" s="45"/>
-      <c r="N30" s="45"/>
-      <c r="O30" s="46"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="69"/>
     </row>
     <row r="31" spans="4:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="49"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="71"/>
+      <c r="M31" s="71"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="D2:L4"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="H10:L10"/>
-    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D30:O31"/>
+    <mergeCell ref="D24:O24"/>
+    <mergeCell ref="D25:O25"/>
+    <mergeCell ref="D26:O26"/>
+    <mergeCell ref="D27:O27"/>
+    <mergeCell ref="D28:O28"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K16:L16"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="G19:I19"/>
     <mergeCell ref="G20:I20"/>
@@ -1567,18 +1563,20 @@
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="G18:I18"/>
     <mergeCell ref="D19:E19"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D30:O31"/>
-    <mergeCell ref="D24:O24"/>
-    <mergeCell ref="D25:O25"/>
-    <mergeCell ref="D26:O26"/>
-    <mergeCell ref="D27:O27"/>
-    <mergeCell ref="D28:O28"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="H10:L10"/>
+    <mergeCell ref="H9:L9"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="D2:L4"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1588,7 +1586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CD0883E-70EF-48EF-8CD4-6AD9A2CA789C}">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
@@ -1600,122 +1598,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
+      <c r="A1" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="76" t="s">
-        <v>36</v>
+      <c r="A4" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="76"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
     </row>
     <row r="6" spans="1:3" ht="31.8" x14ac:dyDescent="0.35">
       <c r="A6" s="23" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19.2" x14ac:dyDescent="0.35">
       <c r="A7" s="26" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B7" s="33" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="30"/>
     </row>
     <row r="8" spans="1:3" ht="46.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -1725,57 +1723,57 @@
     </row>
     <row r="15" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1785,112 +1783,112 @@
     </row>
     <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="78" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A24" s="22" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25" s="25" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="109.2" x14ac:dyDescent="0.3">
       <c r="A26" s="18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B28" s="79" t="s">
-        <v>79</v>
+        <v>74</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>75</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="78" t="s">
-        <v>81</v>
+        <v>76</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>77</v>
       </c>
       <c r="C29" s="40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="77" t="s">
-        <v>83</v>
+        <v>78</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>79</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
